--- a/data/trans_orig/P1420-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50C7CAFF-4C7E-4966-BC50-F37400D33688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B4E1A85-82E3-4F6C-86F3-AEBEED0B7DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F18E3573-06A1-4409-BED9-D2BC190CB305}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8694A840-183A-4CE8-80C6-3CFE34887D62}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="224">
   <si>
     <t>Población con diagnóstico de hemorroides en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -94,13 +94,13 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>4,58%</t>
+    <t>4,87%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>4,43%</t>
+    <t>4,04%</t>
   </si>
   <si>
     <t>1,19%</t>
@@ -109,7 +109,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,41%</t>
+    <t>3,6%</t>
   </si>
   <si>
     <t>No</t>
@@ -118,7 +118,7 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>95,42%</t>
+    <t>95,13%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -127,13 +127,13 @@
     <t>99,13%</t>
   </si>
   <si>
-    <t>95,57%</t>
+    <t>95,96%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>96,59%</t>
+    <t>96,4%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -154,13 +154,13 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,5%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,56%</t>
+    <t>0,7%</t>
   </si>
   <si>
     <t>2,78%</t>
@@ -169,499 +169,493 @@
     <t>1,0%</t>
   </si>
   <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
     <t>0,54%</t>
   </si>
   <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hemorroides en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>Población con diagnóstico de hemorroides en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -1127,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C5685B-1698-4CDD-A295-44D02242AAFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E58A52-6376-41DE-860A-BD5CA293B40A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1920,13 +1914,13 @@
         <v>4077</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -1935,13 +1929,13 @@
         <v>12901</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -1950,13 +1944,13 @@
         <v>16978</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,13 +1965,13 @@
         <v>753546</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>693</v>
@@ -1986,13 +1980,13 @@
         <v>764273</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>1378</v>
@@ -2001,13 +1995,13 @@
         <v>1517819</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,7 +2057,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2081,7 +2075,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2096,7 +2090,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2126,13 +2120,13 @@
         <v>4844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -2141,13 +2135,13 @@
         <v>18409</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -2156,13 +2150,13 @@
         <v>23253</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2171,13 @@
         <v>942895</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>985</v>
@@ -2192,13 +2186,13 @@
         <v>1033492</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>1890</v>
@@ -2207,13 +2201,13 @@
         <v>1976387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,7 +2281,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2302,7 +2296,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2317,7 +2311,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,13 +2326,13 @@
         <v>27007</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -2347,13 +2341,13 @@
         <v>55781</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -2365,10 +2359,10 @@
         <v>21</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2377,13 @@
         <v>3399772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="H26" s="7">
         <v>3243</v>
@@ -2398,28 +2392,28 @@
         <v>3499317</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M26" s="7">
         <v>6426</v>
       </c>
       <c r="N26" s="7">
-        <v>6899089</v>
+        <v>6899090</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,7 +2455,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>33</v>
@@ -2475,7 +2469,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2496,7 +2490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A48236-15A9-4856-AD9B-B561FA7199FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526B880C-AA91-4BA7-AACE-C55609632C77}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2513,7 +2507,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2626,37 +2620,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,14 +2665,14 @@
         <v>3202</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
@@ -2692,7 +2686,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2701,13 +2695,13 @@
         <v>3202</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2716,13 @@
         <v>113344</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H6" s="7">
         <v>115</v>
@@ -2740,7 +2734,7 @@
         <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>33</v>
@@ -2752,13 +2746,13 @@
         <v>226704</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,7 +2856,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2871,13 @@
         <v>1056</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2892,13 +2886,13 @@
         <v>4125</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -2907,10 +2901,10 @@
         <v>5181</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>148</v>
@@ -2931,7 +2925,7 @@
         <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>27</v>
@@ -2943,10 +2937,10 @@
         <v>555354</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>149</v>
@@ -2958,13 +2952,13 @@
         <v>1112552</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,10 +3080,10 @@
         <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3098,13 +3092,13 @@
         <v>19879</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3113,13 +3107,13 @@
         <v>25526</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,7 +3131,7 @@
         <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>149</v>
@@ -3149,13 +3143,13 @@
         <v>1023034</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>1905</v>
@@ -3164,13 +3158,13 @@
         <v>2039818</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,7 +3253,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3274,7 +3268,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,10 +3286,10 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3304,13 +3298,13 @@
         <v>7622</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -3319,13 +3313,13 @@
         <v>18930</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,10 +3337,10 @@
         <v>25</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H18" s="7">
         <v>729</v>
@@ -3370,13 +3364,13 @@
         <v>1525633</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3426,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3450,7 +3444,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3498,10 +3492,10 @@
         <v>177</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -3510,13 +3504,13 @@
         <v>14324</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -3525,13 +3519,13 @@
         <v>26645</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3540,13 @@
         <v>925246</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="H22" s="7">
         <v>947</v>
@@ -3561,13 +3555,13 @@
         <v>1029455</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>1869</v>
@@ -3576,13 +3570,13 @@
         <v>1954701</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,7 +3650,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3671,7 +3665,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3686,7 +3680,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3695,13 @@
         <v>33533</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -3716,13 +3710,13 @@
         <v>45950</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -3731,13 +3725,13 @@
         <v>79483</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3746,13 @@
         <v>3360817</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H26" s="7">
         <v>3298</v>
@@ -3767,13 +3761,13 @@
         <v>3498592</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="M26" s="7">
         <v>6499</v>
@@ -3782,13 +3776,13 @@
         <v>6859409</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,7 +3838,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3865,7 +3859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD35277-2AA3-40C8-9D3B-2A5DA549D294}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706D9890-A4A4-48CA-81C1-F982452FA86D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3882,7 +3876,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3992,7 +3986,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>33</v>
@@ -4007,7 +4001,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>33</v>
@@ -4022,7 +4016,7 @@
         <v>27</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>33</v>
@@ -4046,7 +4040,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4061,7 +4055,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4076,7 +4070,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,7 +4091,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4112,7 +4106,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4127,7 +4121,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,7 +4192,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>33</v>
@@ -4228,7 +4222,7 @@
         <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>33</v>
@@ -4252,7 +4246,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4267,7 +4261,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4282,7 +4276,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,7 +4297,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4318,7 +4312,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4333,7 +4327,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,7 +4398,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>33</v>
@@ -4419,7 +4413,7 @@
         <v>27</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>33</v>
@@ -4434,7 +4428,7 @@
         <v>27</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>33</v>
@@ -4473,7 +4467,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4488,7 +4482,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,7 +4518,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4539,7 +4533,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,7 +4604,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>33</v>
@@ -4625,7 +4619,7 @@
         <v>27</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>33</v>
@@ -4640,7 +4634,7 @@
         <v>27</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>33</v>
@@ -4679,7 +4673,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4694,7 +4688,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4745,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,7 +4795,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4831,7 +4825,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>33</v>
@@ -4846,7 +4840,7 @@
         <v>27</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>33</v>
@@ -4870,7 +4864,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4885,7 +4879,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4900,7 +4894,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,7 +4915,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4936,7 +4930,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4951,7 +4945,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,7 +5016,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>33</v>
@@ -5037,7 +5031,7 @@
         <v>27</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>33</v>
@@ -5046,13 +5040,13 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>33</v>
@@ -5076,7 +5070,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5091,7 +5085,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5106,7 +5100,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,7 +5121,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5142,7 +5136,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5157,7 +5151,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,7 +5193,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>33</v>
@@ -5213,7 +5207,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1420-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B4E1A85-82E3-4F6C-86F3-AEBEED0B7DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E641C304-669A-468C-8D3B-8EAB0AA8286B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8694A840-183A-4CE8-80C6-3CFE34887D62}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E190508-2284-4CC6-B6FF-86DF0D89BA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="225">
   <si>
     <t>Población con diagnóstico de hemorroides en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No procede</t>
@@ -94,13 +94,13 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>5,12%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>4,04%</t>
+    <t>4,45%</t>
   </si>
   <si>
     <t>1,19%</t>
@@ -109,7 +109,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,6%</t>
+    <t>3,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -118,7 +118,7 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>95,13%</t>
+    <t>94,88%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -127,13 +127,13 @@
     <t>99,13%</t>
   </si>
   <si>
-    <t>95,96%</t>
+    <t>95,55%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>96,4%</t>
+    <t>96,38%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -142,7 +142,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -154,522 +154,528 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>1,5%</t>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,99%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hemorroides en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hemorroides en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
     <t>99,87%</t>
   </si>
   <si>
@@ -680,9 +686,6 @@
   </si>
   <si>
     <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -1121,7 +1124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E58A52-6376-41DE-860A-BD5CA293B40A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6442E433-7931-429F-9E4A-C9FCD26AA94B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1505,10 +1508,10 @@
         <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -1517,13 +1520,13 @@
         <v>8442</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -1532,13 +1535,13 @@
         <v>11684</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,13 +1556,13 @@
         <v>584461</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>543</v>
@@ -1568,13 +1571,13 @@
         <v>576703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>1092</v>
@@ -1583,13 +1586,13 @@
         <v>1161165</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1645,7 +1648,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1663,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1678,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1693,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,13 +1711,13 @@
         <v>13121</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -1723,10 +1726,10 @@
         <v>15052</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>62</v>
@@ -1950,7 +1953,7 @@
         <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,13 +1968,13 @@
         <v>753546</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>693</v>
@@ -1980,13 +1983,13 @@
         <v>764273</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>1378</v>
@@ -1995,13 +1998,13 @@
         <v>1517819</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,7 +2060,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2075,7 +2078,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2090,7 +2093,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2105,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2123,13 @@
         <v>4844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -2135,13 +2138,13 @@
         <v>18409</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -2150,13 +2153,13 @@
         <v>23253</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2174,13 @@
         <v>942895</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>985</v>
@@ -2186,13 +2189,13 @@
         <v>1033492</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>1890</v>
@@ -2201,13 +2204,13 @@
         <v>1976387</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,7 +2284,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2296,7 +2299,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2311,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2329,13 @@
         <v>27007</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -2341,13 +2344,13 @@
         <v>55781</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -2359,10 +2362,10 @@
         <v>21</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,10 +2383,10 @@
         <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="H26" s="7">
         <v>3243</v>
@@ -2392,28 +2395,28 @@
         <v>3499317</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>6426</v>
       </c>
       <c r="N26" s="7">
-        <v>6899090</v>
+        <v>6899089</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,7 +2458,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>33</v>
@@ -2469,7 +2472,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526B880C-AA91-4BA7-AACE-C55609632C77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F131DA43-9560-402A-970C-BC178EDF29A9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2507,7 +2510,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2620,7 +2623,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2635,7 +2638,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2650,7 +2653,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,28 +2668,28 @@
         <v>3202</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2695,13 +2698,13 @@
         <v>3202</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,13 +2719,13 @@
         <v>113344</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H6" s="7">
         <v>115</v>
@@ -2734,7 +2737,7 @@
         <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>33</v>
@@ -2746,13 +2749,13 @@
         <v>226704</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,7 +2859,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2874,13 @@
         <v>1056</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2886,13 +2889,13 @@
         <v>4125</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -2901,13 +2904,13 @@
         <v>5181</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,10 +2925,10 @@
         <v>557198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>27</v>
@@ -2937,13 +2940,13 @@
         <v>555354</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>1085</v>
@@ -2952,13 +2955,13 @@
         <v>1112552</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,7 +3017,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3032,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3047,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3062,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,10 +3083,10 @@
         <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3092,13 +3095,13 @@
         <v>19879</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3107,13 +3110,13 @@
         <v>25526</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3131,13 @@
         <v>1016784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>960</v>
@@ -3143,13 +3146,13 @@
         <v>1023034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="M14" s="7">
         <v>1905</v>
@@ -3158,13 +3161,13 @@
         <v>2039818</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3256,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3268,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,10 +3289,10 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3298,13 +3301,13 @@
         <v>7622</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -3313,13 +3316,13 @@
         <v>18930</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,10 +3340,10 @@
         <v>25</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H18" s="7">
         <v>729</v>
@@ -3349,13 +3352,13 @@
         <v>777389</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M18" s="7">
         <v>1415</v>
@@ -3364,13 +3367,13 @@
         <v>1525633</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,7 +3429,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3444,7 +3447,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3459,7 +3462,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3474,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3492,13 @@
         <v>12321</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -3504,13 +3507,13 @@
         <v>14324</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -3519,13 +3522,13 @@
         <v>26645</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,13 +3543,13 @@
         <v>925246</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="H22" s="7">
         <v>947</v>
@@ -3555,13 +3558,13 @@
         <v>1029455</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="M22" s="7">
         <v>1869</v>
@@ -3570,10 +3573,10 @@
         <v>1954701</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>28</v>
@@ -3650,7 +3653,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3665,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3680,7 +3683,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3698,13 @@
         <v>33533</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -3710,13 +3713,13 @@
         <v>45950</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -3725,13 +3728,13 @@
         <v>79483</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3749,13 @@
         <v>3360817</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H26" s="7">
         <v>3298</v>
@@ -3761,13 +3764,13 @@
         <v>3498592</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="M26" s="7">
         <v>6499</v>
@@ -3776,13 +3779,13 @@
         <v>6859409</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,7 +3841,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3859,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706D9890-A4A4-48CA-81C1-F982452FA86D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A42DDF6-B107-4486-A258-A3F32A4294D7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3876,7 +3879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3986,7 +3989,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>33</v>
@@ -4016,7 +4019,7 @@
         <v>27</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>33</v>
@@ -4040,7 +4043,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4055,7 +4058,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4070,7 +4073,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,7 +4094,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4106,7 +4109,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4121,7 +4124,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,7 +4195,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>33</v>
@@ -4207,7 +4210,7 @@
         <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>33</v>
@@ -4222,7 +4225,7 @@
         <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>33</v>
@@ -4246,7 +4249,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4261,7 +4264,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4276,7 +4279,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,7 +4300,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4312,7 +4315,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4327,7 +4330,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,7 +4386,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4398,7 +4401,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>33</v>
@@ -4413,7 +4416,7 @@
         <v>27</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>33</v>
@@ -4428,7 +4431,7 @@
         <v>27</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>33</v>
@@ -4452,7 +4455,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4467,7 +4470,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4482,7 +4485,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,7 +4506,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4518,7 +4521,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4533,7 +4536,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,7 +4607,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>33</v>
@@ -4619,7 +4622,7 @@
         <v>27</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>33</v>
@@ -4634,7 +4637,7 @@
         <v>27</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>33</v>
@@ -4673,7 +4676,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4688,7 +4691,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,7 +4727,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4739,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,7 +4798,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4810,7 +4813,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>33</v>
@@ -4825,7 +4828,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>33</v>
@@ -4840,7 +4843,7 @@
         <v>27</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>33</v>
@@ -4864,7 +4867,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4879,7 +4882,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4894,7 +4897,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,7 +4918,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4930,7 +4933,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4945,7 +4948,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,7 +5019,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>33</v>
@@ -5031,7 +5034,7 @@
         <v>27</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>33</v>
@@ -5046,7 +5049,7 @@
         <v>27</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>33</v>
@@ -5070,7 +5073,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5085,7 +5088,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5100,7 +5103,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,7 +5124,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5136,7 +5139,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5151,7 +5154,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,7 +5210,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1420-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8BE5D8C-F60D-4FD2-921B-74D739F7699A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5209C3D8-467C-44EC-8DAF-FE3DCD869F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B4BA7915-2403-450B-B7D5-2CAAE1310723}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0E49C076-49E9-4A8D-9AA5-3981473801A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="174">
   <si>
     <t>Población con diagnóstico de hemorroides en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -66,534 +66,489 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hemorroides en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
     <t>99,32%</t>
   </si>
   <si>
@@ -601,9 +556,6 @@
   </si>
   <si>
     <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
   </si>
   <si>
     <t>98,58%</t>
@@ -1018,8 +970,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF493244-41B0-4E31-8B6E-02AFF6F928B8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2877C4F4-E64D-4FD9-B437-CE0B167CC46A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1136,10 +1088,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>1722</v>
+        <v>4965</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1151,85 +1103,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>977</v>
+        <v>9419</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>2699</v>
+        <v>14383</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>120</v>
+        <v>669</v>
       </c>
       <c r="D5" s="7">
-        <v>114043</v>
+        <v>698504</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>98</v>
+        <v>641</v>
       </c>
       <c r="I5" s="7">
-        <v>110928</v>
+        <v>687631</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>218</v>
+        <v>1310</v>
       </c>
       <c r="N5" s="7">
-        <v>224971</v>
+        <v>1386136</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1238,153 +1190,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>3243</v>
+        <v>13121</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>8442</v>
+        <v>15052</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>11684</v>
+        <v>28173</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>549</v>
+        <v>924</v>
       </c>
       <c r="D8" s="7">
-        <v>584461</v>
+        <v>1004826</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>543</v>
+        <v>924</v>
       </c>
       <c r="I8" s="7">
-        <v>576703</v>
+        <v>1013921</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1092</v>
+        <v>1848</v>
       </c>
       <c r="N8" s="7">
-        <v>1161165</v>
+        <v>2018748</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,153 +1345,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4077</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
-        <v>13121</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>14</v>
-      </c>
       <c r="I10" s="7">
-        <v>15052</v>
+        <v>12901</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>28173</v>
+        <v>16978</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>924</v>
+        <v>685</v>
       </c>
       <c r="D11" s="7">
-        <v>1004826</v>
+        <v>753546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>924</v>
+        <v>693</v>
       </c>
       <c r="I11" s="7">
-        <v>1013921</v>
+        <v>764273</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1848</v>
+        <v>1378</v>
       </c>
       <c r="N11" s="7">
-        <v>2018747</v>
+        <v>1517819</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,153 +1500,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>4077</v>
+        <v>4844</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>12901</v>
+        <v>18409</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>16978</v>
+        <v>23253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>685</v>
+        <v>905</v>
       </c>
       <c r="D14" s="7">
-        <v>753546</v>
+        <v>942895</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>693</v>
+        <v>985</v>
       </c>
       <c r="I14" s="7">
-        <v>764273</v>
+        <v>1033492</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1378</v>
+        <v>1890</v>
       </c>
       <c r="N14" s="7">
-        <v>1517819</v>
+        <v>1976387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,153 +1655,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>4844</v>
+        <v>27007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I16" s="7">
-        <v>18409</v>
+        <v>55781</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="N16" s="7">
-        <v>23253</v>
+        <v>82788</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>905</v>
+        <v>3183</v>
       </c>
       <c r="D17" s="7">
-        <v>942895</v>
+        <v>3399772</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>985</v>
+        <v>3243</v>
       </c>
       <c r="I17" s="7">
-        <v>1033492</v>
+        <v>3499317</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>1890</v>
+        <v>6426</v>
       </c>
       <c r="N17" s="7">
-        <v>1976387</v>
+        <v>6899089</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,217 +1810,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6505</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6981877</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>26</v>
-      </c>
-      <c r="D19" s="7">
-        <v>27007</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="7">
-        <v>53</v>
-      </c>
-      <c r="I19" s="7">
-        <v>55781</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="7">
-        <v>79</v>
-      </c>
-      <c r="N19" s="7">
-        <v>82788</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3183</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3399772</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3243</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3499317</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6426</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6899089</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981877</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>115</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2081,8 +1877,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752143B0-3EF7-4BBF-9F81-73529414BFE9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C45432-0E8F-455D-B26D-FF4C8B53E330}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2098,7 +1894,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2199,100 +1995,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>3202</v>
+        <v>4258</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4125</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>3202</v>
+        <v>8382</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>110</v>
+        <v>648</v>
       </c>
       <c r="D5" s="7">
-        <v>113344</v>
+        <v>670542</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
-        <v>115</v>
+        <v>662</v>
       </c>
       <c r="I5" s="7">
-        <v>113360</v>
+        <v>668714</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
-        <v>225</v>
+        <v>1310</v>
       </c>
       <c r="N5" s="7">
-        <v>226704</v>
+        <v>1339257</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,153 +2097,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>1056</v>
+        <v>5647</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>4125</v>
+        <v>19879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>5181</v>
+        <v>25526</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>538</v>
+        <v>945</v>
       </c>
       <c r="D8" s="7">
-        <v>557198</v>
+        <v>1016784</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="H8" s="7">
-        <v>547</v>
+        <v>960</v>
       </c>
       <c r="I8" s="7">
-        <v>555354</v>
+        <v>1023034</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
-        <v>1085</v>
+        <v>1905</v>
       </c>
       <c r="N8" s="7">
-        <v>1112552</v>
+        <v>2039818</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,153 +2252,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>5647</v>
+        <v>11308</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7622</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="7">
         <v>17</v>
       </c>
-      <c r="I10" s="7">
-        <v>19879</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M10" s="7">
-        <v>23</v>
-      </c>
       <c r="N10" s="7">
-        <v>25526</v>
+        <v>18930</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>945</v>
+        <v>686</v>
       </c>
       <c r="D11" s="7">
-        <v>1016784</v>
+        <v>748244</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="7">
+        <v>729</v>
+      </c>
+      <c r="I11" s="7">
+        <v>777389</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1415</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1525633</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="7">
-        <v>960</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1023034</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1905</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2039818</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,54 +2407,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2667,73 +2463,73 @@
         <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>11308</v>
+        <v>12321</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="7">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7">
+        <v>14324</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7622</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>22</v>
+      </c>
+      <c r="N13" s="7">
+        <v>26645</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="M13" s="7">
-        <v>17</v>
-      </c>
-      <c r="N13" s="7">
-        <v>18930</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>686</v>
+        <v>922</v>
       </c>
       <c r="D14" s="7">
-        <v>748244</v>
+        <v>925246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="H14" s="7">
-        <v>729</v>
+        <v>947</v>
       </c>
       <c r="I14" s="7">
-        <v>777389</v>
+        <v>1029455</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>157</v>
@@ -2742,16 +2538,16 @@
         <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1869</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1954701</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1415</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1525633</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>160</v>
@@ -2766,63 +2562,63 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>12321</v>
+        <v>33533</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>162</v>
@@ -2834,85 +2630,85 @@
         <v>164</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I16" s="7">
-        <v>14324</v>
+        <v>45950</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>165</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>166</v>
       </c>
       <c r="M16" s="7">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="N16" s="7">
-        <v>26645</v>
+        <v>79483</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>922</v>
+        <v>3201</v>
       </c>
       <c r="D17" s="7">
-        <v>925246</v>
+        <v>3360817</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3498592</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H17" s="7">
-        <v>947</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1029455</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="7">
+        <v>6499</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6859409</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1869</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1954701</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,217 +2717,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7">
-        <v>33533</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="7">
-        <v>40</v>
-      </c>
-      <c r="I19" s="7">
-        <v>45950</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M19" s="7">
-        <v>70</v>
-      </c>
-      <c r="N19" s="7">
-        <v>79483</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3201</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3360817</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3498592</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6499</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6859409</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>115</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
